--- a/testData/loginData.xlsx
+++ b/testData/loginData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nisha\JavaLearning\automation_assignment\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nisha\git\TestAutomationFramework\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD79F0B-494F-4B6A-98C3-D5B805B3BAA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{021B6C20-2A0C-4E98-8C84-25B9C0A5F4D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -354,7 +354,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/testData/loginData.xlsx
+++ b/testData/loginData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nisha\git\TestAutomationFramework\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9d063d08369cdf12/Documents/Automation Project/TestAutomationFramework/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{021B6C20-2A0C-4E98-8C84-25B9C0A5F4D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{6E885BD9-8B0C-4B6C-861F-9D25A5BA5BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABFBC760-A906-4C2C-85DF-F5719E027134}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,25 +25,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>emailAddress</t>
   </si>
   <si>
-    <t>Password</t>
+    <t>password</t>
   </si>
   <si>
     <t>hecoxi2076@nokdot.com</t>
+  </si>
+  <si>
+    <t>Password</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -66,13 +77,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -358,6 +372,10 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="36.21875" customWidth="1"/>
+    <col min="2" max="2" width="8.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -368,14 +386,17 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{FEDE4D1D-2A93-4A43-8548-0D04EC36F640}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>